--- a/Excel/Exercice 2.xlsx
+++ b/Excel/Exercice 2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb92272b50bc787c/Documents/Formation365/Excel/"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -166,7 +166,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2295,6 +2294,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ilyass Msellek" refreshedDate="46039.64946296296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{6607ADC9-B058-495B-9155-777CBB1971E7}">
   <cacheSource type="worksheet">
@@ -2390,7 +2393,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71E1E9C1-6235-48AB-BC15-45AC2AA33FDC}" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71E1E9C1-6235-48AB-BC15-45AC2AA33FDC}" name="Tableau croisé dynamique1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A1:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2917,6 +2920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF31122-B9F2-4CF1-8F16-0AF3858FE8A1}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3064,6 +3068,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCE8ECE-E666-4E43-9BD8-6CCE129DB730}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3082,7 +3087,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
@@ -3096,44 +3101,44 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>3800</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>3800</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>3800</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>4000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>3900</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>4100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>3100</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>3000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>3200</v>
       </c>
     </row>
